--- a/tables/CNV_TFPN_cnvkit_segment.xlsx
+++ b/tables/CNV_TFPN_cnvkit_segment.xlsx
@@ -522,10 +522,10 @@
   <dimension ref="A1:BJ201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1503,7 +1503,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SLL</t>
+          <t>CLL</t>
         </is>
       </c>
       <c r="B5" s="14" t="inlineStr">
@@ -4243,7 +4243,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CLL/MZL/LPL</t>
+          <t>CLL</t>
         </is>
       </c>
       <c r="B18" s="14" t="inlineStr">
@@ -4876,7 +4876,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SLL</t>
+          <t>CLL</t>
         </is>
       </c>
       <c r="B21" s="14" t="inlineStr">
@@ -7386,7 +7386,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MF, CD5+ small B cell lymphoproliferative</t>
+          <t>CLL</t>
         </is>
       </c>
       <c r="B33" s="18" t="inlineStr">
@@ -10534,7 +10534,7 @@
     <row r="48">
       <c r="A48" s="20" t="inlineStr">
         <is>
-          <t>MDS s/p allogeneic bone marrow transplant</t>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B48" s="18" t="inlineStr">
@@ -10749,7 +10749,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -10965,9 +10965,9 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>MDS therapy related</t>
+      <c r="A50" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B50" s="18" t="inlineStr">
@@ -11181,7 +11181,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -11397,7 +11397,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -11613,7 +11613,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -11829,7 +11829,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -12045,7 +12045,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -12261,7 +12261,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -12477,9 +12477,9 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>MDS isolated del(5q)</t>
+      <c r="A57" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B57" s="18" t="inlineStr">
@@ -12688,9 +12688,9 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>MDS isolated del(5q)</t>
+      <c r="A58" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B58" s="18" t="inlineStr">
@@ -12904,9 +12904,9 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>MDS, Refractory cytopenia with unilineage dysplasia</t>
+      <c r="A59" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B59" s="18" t="inlineStr">
@@ -13120,7 +13120,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -13336,7 +13336,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -13552,7 +13552,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -13773,9 +13773,9 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>MDS-EB-1</t>
+      <c r="A63" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B63" s="18" t="inlineStr">
@@ -13989,9 +13989,9 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>MDS therapy related</t>
+      <c r="A64" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B64" s="18" t="inlineStr">
@@ -14205,9 +14205,9 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>MDS, Refractory anemia with excess blasts</t>
+      <c r="A65" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B65" s="18" t="inlineStr">
@@ -14421,7 +14421,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -14637,9 +14637,9 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>MDS, Refractory cytopenia with multilineage dysplasia</t>
+      <c r="A67" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B67" s="18" t="inlineStr">
@@ -14853,9 +14853,9 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>MDS with multilineage dysplasia</t>
+      <c r="A68" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B68" s="18" t="inlineStr">
@@ -15069,9 +15069,9 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>MDS, Refractory anemia with excess blasts</t>
+      <c r="A69" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B69" s="18" t="inlineStr">
@@ -15285,7 +15285,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -15501,7 +15501,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -15713,9 +15713,9 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>MDS therapy related</t>
+      <c r="A72" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B72" s="18" t="inlineStr">
@@ -15929,9 +15929,9 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>MDS/MPN, CMML</t>
+      <c r="A73" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B73" s="18" t="inlineStr">
@@ -16145,7 +16145,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="A74" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -16361,7 +16361,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="A75" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -16577,7 +16577,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="A76" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -16793,7 +16793,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="A77" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -17009,7 +17009,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="A78" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -17225,9 +17225,9 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MDS/MPN </t>
+      <c r="A79" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B79" s="18" t="inlineStr">
@@ -17441,7 +17441,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="A80" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -17662,7 +17662,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="A81" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -17878,7 +17878,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="A82" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -18094,7 +18094,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="A83" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -18310,7 +18310,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="A84" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -18526,7 +18526,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="A85" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -18742,7 +18742,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="A86" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -18954,7 +18954,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="A87" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -19165,7 +19165,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="A88" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -19381,7 +19381,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="A89" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -19597,7 +19597,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="A90" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -19813,9 +19813,9 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>MDS isolated del(5q)</t>
+      <c r="A91" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B91" s="18" t="inlineStr">
@@ -20024,9 +20024,9 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>MDS, Refractory anemia with ring sideroblasts</t>
+      <c r="A92" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B92" s="18" t="inlineStr">
@@ -20240,7 +20240,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
+      <c r="A93" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -20456,7 +20456,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="A94" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -20672,9 +20672,9 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>MDS/MPN, CMML</t>
+      <c r="A95" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B95" s="18" t="inlineStr">
@@ -20888,9 +20888,9 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>MDS-EB</t>
+      <c r="A96" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B96" s="18" t="inlineStr">
@@ -21099,9 +21099,9 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>MDS with multilineage dysplasia and myelofibrosis</t>
+      <c r="A97" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B97" s="18" t="inlineStr">
@@ -21315,7 +21315,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
+      <c r="A98" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -21531,9 +21531,9 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>MDS-EB</t>
+      <c r="A99" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B99" s="18" t="inlineStr">
@@ -21747,7 +21747,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="A100" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -21963,9 +21963,9 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>MDS/MPN, CMML</t>
+      <c r="A101" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B101" s="18" t="inlineStr">
@@ -22179,9 +22179,9 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>MDS isolated del(5q)</t>
+      <c r="A102" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B102" s="18" t="inlineStr">
@@ -22395,7 +22395,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
+      <c r="A103" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -22611,7 +22611,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
+      <c r="A104" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -22827,9 +22827,9 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>MDS,  Refractory anemia with ring sideroblasts</t>
+      <c r="A105" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B105" s="18" t="inlineStr">
@@ -23048,7 +23048,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
+      <c r="A106" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -23264,9 +23264,9 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>MDS-EB2</t>
+      <c r="A107" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B107" s="18" t="inlineStr">
@@ -23485,9 +23485,9 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>MDS-EB2</t>
+      <c r="A108" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B108" s="18" t="inlineStr">
@@ -23706,9 +23706,9 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>MDS, Refractory anemia with excess blasts</t>
+      <c r="A109" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B109" s="18" t="inlineStr">
@@ -23922,7 +23922,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
+      <c r="A110" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -24138,9 +24138,9 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>MDS, Refractory cytopenia with multilineage dysplasia</t>
+      <c r="A111" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B111" s="18" t="inlineStr">
@@ -24354,9 +24354,9 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>MDS, Refractory cytopenia with multilineage dysplasia</t>
+      <c r="A112" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B112" s="18" t="inlineStr">
@@ -24570,7 +24570,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
+      <c r="A113" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -24786,9 +24786,9 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>MDS/MPN</t>
+      <c r="A114" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B114" s="18" t="inlineStr">
@@ -25002,9 +25002,9 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>MDS, Refractory cytopenia with multilineage dysplasia</t>
+      <c r="A115" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B115" s="18" t="inlineStr">
@@ -25213,7 +25213,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
+      <c r="A116" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -25429,7 +25429,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
+      <c r="A117" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -25645,7 +25645,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
+      <c r="A118" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -25861,9 +25861,9 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>MDS + CML</t>
+      <c r="A119" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B119" s="18" t="inlineStr">

--- a/tables/CNV_TFPN_cnvkit_segment.xlsx
+++ b/tables/CNV_TFPN_cnvkit_segment.xlsx
@@ -1435,7 +1435,7 @@
       </c>
       <c r="AR4" s="20" t="inlineStr">
         <is>
-          <t>FP</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="AS4" s="20" t="inlineStr">
@@ -1684,7 +1684,7 @@
       </c>
       <c r="AZ5" s="20" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>FP</t>
         </is>
       </c>
       <c r="BA5" s="20" t="inlineStr">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="AZ6" s="20" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>FP</t>
         </is>
       </c>
       <c r="BA6" s="20" t="inlineStr">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="AZ13" s="20" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>FP</t>
         </is>
       </c>
       <c r="BA13" s="20" t="inlineStr">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="AZ16" s="20" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>FP</t>
         </is>
       </c>
       <c r="BA16" s="20" t="inlineStr">
@@ -4635,7 +4635,7 @@
       </c>
       <c r="AZ19" s="20" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>FP</t>
         </is>
       </c>
       <c r="BA19" s="20" t="inlineStr">
@@ -4846,7 +4846,7 @@
       </c>
       <c r="AZ20" s="20" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>FP</t>
         </is>
       </c>
       <c r="BA20" s="20" t="inlineStr">
@@ -5898,7 +5898,7 @@
       </c>
       <c r="AZ25" s="20" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>FP</t>
         </is>
       </c>
       <c r="BA25" s="20" t="inlineStr">
@@ -6929,7 +6929,7 @@
       </c>
       <c r="AZ30" s="20" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>FP</t>
         </is>
       </c>
       <c r="BA30" s="20" t="inlineStr">
@@ -7356,7 +7356,7 @@
       </c>
       <c r="AZ32" s="20" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>FP</t>
         </is>
       </c>
       <c r="BA32" s="20" t="inlineStr">
@@ -9241,7 +9241,7 @@
       </c>
       <c r="AZ41" s="20" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>FP</t>
         </is>
       </c>
       <c r="BA41" s="20" t="inlineStr">
@@ -10086,7 +10086,7 @@
       </c>
       <c r="AZ45" s="20" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>FP</t>
         </is>
       </c>
       <c r="BA45" s="20" t="inlineStr">
@@ -10297,7 +10297,7 @@
       </c>
       <c r="AZ46" s="20" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>FP</t>
         </is>
       </c>
       <c r="BA46" s="20" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="AZ51" s="20" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>FP</t>
         </is>
       </c>
       <c r="BA51" s="20" t="inlineStr">
@@ -11796,7 +11796,7 @@
       </c>
       <c r="AZ53" s="20" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>FP</t>
         </is>
       </c>
       <c r="BA53" s="20" t="inlineStr">
@@ -13519,7 +13519,7 @@
       </c>
       <c r="AZ61" s="20" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>FP</t>
         </is>
       </c>
       <c r="BA61" s="20" t="inlineStr">
@@ -13735,7 +13735,7 @@
       </c>
       <c r="AZ62" s="20" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>FP</t>
         </is>
       </c>
       <c r="BA62" s="20" t="inlineStr">
@@ -23010,7 +23010,7 @@
       </c>
       <c r="AZ105" s="20" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>FP</t>
         </is>
       </c>
       <c r="BA105" s="20" t="inlineStr">
@@ -23231,7 +23231,7 @@
       </c>
       <c r="AZ106" s="20" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>FP</t>
         </is>
       </c>
       <c r="BA106" s="20" t="inlineStr">
@@ -23409,7 +23409,7 @@
       </c>
       <c r="AR107" s="20" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>FN</t>
         </is>
       </c>
       <c r="AS107" s="20" t="inlineStr">
@@ -26006,7 +26006,7 @@
       </c>
       <c r="AR119" s="20" t="inlineStr">
         <is>
-          <t>FP</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="AS119" s="20" t="inlineStr">
@@ -27108,7 +27108,7 @@
       </c>
       <c r="AZ124" s="20" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>FP</t>
         </is>
       </c>
       <c r="BA124" s="20" t="inlineStr">
@@ -29230,7 +29230,7 @@
       </c>
       <c r="AZ134" s="20" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>FP</t>
         </is>
       </c>
       <c r="BA134" s="20" t="inlineStr">
@@ -30511,7 +30511,7 @@
       </c>
       <c r="AZ140" s="20" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>FP</t>
         </is>
       </c>
       <c r="BA140" s="20" t="inlineStr">
@@ -31152,7 +31152,7 @@
       </c>
       <c r="AZ143" s="20" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>FP</t>
         </is>
       </c>
       <c r="BA143" s="20" t="inlineStr">
@@ -31562,7 +31562,7 @@
       </c>
       <c r="AZ145" s="20" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>FP</t>
         </is>
       </c>
       <c r="BA145" s="20" t="inlineStr">
@@ -32801,7 +32801,7 @@
       </c>
       <c r="AZ151" s="20" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>FP</t>
         </is>
       </c>
       <c r="BA151" s="20" t="inlineStr">
@@ -33643,7 +33643,7 @@
       </c>
       <c r="AZ155" s="20" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>FP</t>
         </is>
       </c>
       <c r="BA155" s="20" t="inlineStr">
@@ -33854,7 +33854,7 @@
       </c>
       <c r="AZ156" s="20" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>FP</t>
         </is>
       </c>
       <c r="BA156" s="20" t="inlineStr">
@@ -35738,7 +35738,7 @@
       </c>
       <c r="AZ165" s="20" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>FP</t>
         </is>
       </c>
       <c r="BA165" s="20" t="inlineStr">
@@ -39068,7 +39068,7 @@
       </c>
       <c r="AR181" s="20" t="inlineStr">
         <is>
-          <t>FP</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="AS181" s="20" t="inlineStr">
@@ -39318,7 +39318,7 @@
       </c>
       <c r="AZ182" s="20" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>FP</t>
         </is>
       </c>
       <c r="BA182" s="20" t="inlineStr">
@@ -43209,7 +43209,7 @@
       </c>
       <c r="AZ200" s="20" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>FP</t>
         </is>
       </c>
       <c r="BA200" s="20" t="inlineStr">
